--- a/reference/area_details.xlsx
+++ b/reference/area_details.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>area_name</t>
   </si>
@@ -23,31 +23,94 @@
     <t>image_path</t>
   </si>
   <si>
-    <t>Shivtirth Nagar, Kothrud</t>
-  </si>
-  <si>
-    <t>reference/kothrud.png</t>
+    <t>Kothrud depo</t>
+  </si>
+  <si>
+    <t>reference/image_one.jpg</t>
   </si>
   <si>
     <t>Vanaz Corner, Kothrud</t>
   </si>
   <si>
-    <t>reference/dahanukar_colony.png</t>
+    <t>reference/image_two.jpg</t>
   </si>
   <si>
     <t>MIT college, Kothrud</t>
   </si>
   <si>
+    <t>reference/image_three.jpg</t>
+  </si>
+  <si>
     <t>Nal Stop, Kothrud</t>
   </si>
   <si>
+    <t>reference/image_four.jpg</t>
+  </si>
+  <si>
     <t>Rajaram Bridge, Sinhgad Road</t>
   </si>
   <si>
+    <t>reference/image_five.jpg</t>
+  </si>
+  <si>
     <t>Aanad Nagar, Sinhgad Road</t>
   </si>
   <si>
+    <t>reference/image_six.jpg</t>
+  </si>
+  <si>
     <t>Dahanukar Colony</t>
+  </si>
+  <si>
+    <t>reference/image_seven.png</t>
+  </si>
+  <si>
+    <t>Shivajinagar</t>
+  </si>
+  <si>
+    <t>reference/image_eight.jpg</t>
+  </si>
+  <si>
+    <t>Uttamnagar, Bavdhan</t>
+  </si>
+  <si>
+    <t>reference/image_nine.jpg</t>
+  </si>
+  <si>
+    <t>Dange chowk, Pimpiri</t>
+  </si>
+  <si>
+    <t>reference/image_ten.jpg</t>
+  </si>
+  <si>
+    <t>Swargate</t>
+  </si>
+  <si>
+    <t>reference/image_11.jpg</t>
+  </si>
+  <si>
+    <t>Balajinagar, Katraj</t>
+  </si>
+  <si>
+    <t>reference/image_12.jpg</t>
+  </si>
+  <si>
+    <t>Varje</t>
+  </si>
+  <si>
+    <t>reference/image_13.jpg</t>
+  </si>
+  <si>
+    <t>Malwadi</t>
+  </si>
+  <si>
+    <t>reference/image_14.jpg</t>
+  </si>
+  <si>
+    <t>Pune station</t>
+  </si>
+  <si>
+    <t>reference/image_15.jpg</t>
   </si>
 </sst>
 </file>
@@ -234,12 +297,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -278,50 +341,105 @@
         <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
